--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2322141.099733674</v>
+        <v>2318128.489719681</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283156</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9493136.700756837</v>
+        <v>9493136.700756835</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863163</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.25160695998082</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.50353219299467</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.4771979831521</v>
+        <v>163.4879632450833</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>65.36690640948794</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>53.63261998865958</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>163.0860508096745</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>248.3991393774277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>54.31367585848971</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>73.78417491006957</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,13 +1660,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T16" t="n">
-        <v>113.5413580759855</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.07916359107286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>95.12712756824605</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>130.1208074460269</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>120.031271843459</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>70.30034983101322</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085811999</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>20.92847288552853</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.2302178375792</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4315,10 +4315,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,52 +4327,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609168</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609168</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609168</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4403,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424833</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218336</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218336</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218336</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218336</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798489</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592602</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556418</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>785.8024369162532</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.0098577727231</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4552,10 +4552,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136263</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136263</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875183</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899371</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>690.6749427105736</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C7" t="n">
-        <v>690.6749427105736</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>690.6749427105736</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1783.289727221112</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1783.289727221112</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783661</v>
+        <v>1783.289727221112</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577774</v>
+        <v>1528.605239015225</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408134</v>
+        <v>1239.188068978264</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408134</v>
+        <v>1011.198518080247</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.3234075408134</v>
+        <v>790.405938936717</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3050.581768480028</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3050.581768480028</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3050.581768480028</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.813113209913</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2324.347354948834</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.208022973022</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541189</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.594608541189</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1075.686386947828</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>847.6968360498105</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.9042569062804</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474783</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851699</v>
+        <v>733.4550657171264</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572631</v>
+        <v>564.5188827892196</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449276</v>
+        <v>564.5188827892196</v>
       </c>
       <c r="E13" t="n">
-        <v>377.6556127449276</v>
+        <v>564.5188827892196</v>
       </c>
       <c r="F13" t="n">
-        <v>230.7656652470174</v>
+        <v>417.6289352913092</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>250.4328360061891</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855606</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199804</v>
+        <v>1907.987318831761</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993917</v>
+        <v>1653.302830625874</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956956</v>
+        <v>1363.885660588914</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058939</v>
+        <v>1135.896109690896</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154094</v>
+        <v>915.1035305473662</v>
       </c>
     </row>
     <row r="14">
@@ -5263,64 +5263,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5372,10 +5372,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.667363329046</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011392</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888037</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888037</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5457,31 +5457,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580275</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580275</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580275</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T16" t="n">
-        <v>2332.274843099482</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.19961644368</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237793</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200833</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302816</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685173</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406105</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.619704128275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478311</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038498</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.14053817979</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910825</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570833</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279819</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853377</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580277</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580277</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235182</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258123</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602321</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396434</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359474</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614566</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987568</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876727</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578598</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614421</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179122</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400746</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400746</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400746</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057736</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713844</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,16 +6253,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029417</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898187003</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187003</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3045.561952449531</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2924.318243516744</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>2774.201604104408</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>2626.288510522015</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024105</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024105</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398592</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053496</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076437</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214749</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177788</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279771</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3227.210417279771</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,43 +6694,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>768.5380889459582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>768.5380889459582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>620.6249953635651</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>473.7350478656547</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>306.5389485805346</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>164.8271174227327</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,7 +7013,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7435,10 +7435,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7554,28 +7554,28 @@
         <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>111.210462433779</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>66.51053793615432</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8640922513026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.5054897610218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.11969353038161</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>16.3131552005421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.21554925516888</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>10.96548648755233</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>125.5054897610406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>31.20374480898998</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817515.6470952162</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817515.6470952161</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314498</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314498</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179367</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179378</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179378</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179361</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26453,7 +26453,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911251.4259139178</v>
+        <v>-911251.4259139182</v>
       </c>
       <c r="C6" t="n">
+        <v>417493.3198136742</v>
+      </c>
+      <c r="D6" t="n">
         <v>417493.3198136743</v>
       </c>
-      <c r="D6" t="n">
-        <v>417493.319813674</v>
-      </c>
       <c r="E6" t="n">
-        <v>167657.9258844477</v>
+        <v>167310.5466300918</v>
       </c>
       <c r="F6" t="n">
-        <v>493070.3876918038</v>
+        <v>492723.0084374466</v>
       </c>
       <c r="G6" t="n">
-        <v>493070.3876918038</v>
+        <v>492723.0084374466</v>
       </c>
       <c r="H6" t="n">
-        <v>493070.3876918035</v>
+        <v>492723.0084374467</v>
       </c>
       <c r="I6" t="n">
-        <v>493070.3876918037</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="J6" t="n">
-        <v>275539.1852945265</v>
+        <v>275191.8060401691</v>
       </c>
       <c r="K6" t="n">
-        <v>493070.3876918037</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="L6" t="n">
-        <v>493070.3876918034</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="M6" t="n">
-        <v>408015.359756292</v>
+        <v>407667.9805019347</v>
       </c>
       <c r="N6" t="n">
-        <v>493070.3876918037</v>
+        <v>492723.0084374465</v>
       </c>
       <c r="O6" t="n">
-        <v>493070.3876918035</v>
+        <v>492723.0084374466</v>
       </c>
       <c r="P6" t="n">
-        <v>493070.3876918036</v>
+        <v>492723.0084374465</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921527</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2973423161884</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.2061231960425</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>277.2566436803285</v>
+        <v>219.2458784183972</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>81.06705623708123</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>136.1364053427823</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>40.83191932994563</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.12385895916333</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="P13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28529,31 +28529,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.487296685809271e-11</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,10 +28614,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28626,13 +28626,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.546902694826715e-11</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551988e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>695.222208616788</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,37 +33262,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>312.3207226334985</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>744.5154887882973</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,13 +33997,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639753</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>563.8804965334547</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572999132</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326296883</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>174.4792836591395</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>602.381454866279</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>476.200092541957</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318128.489719681</v>
+        <v>2319889.020022467</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9493136.700756835</v>
+        <v>9493136.700756837</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>69.25160695998082</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.4879632450833</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>163.4879632450842</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.63261998865958</v>
+        <v>21.7408605118024</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.874843550685</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>171.956041323638</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>122.6028762599956</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>73.78417491006957</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410103</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1575.827088531452</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.827088531452</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1575.827088531452</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2141.34427854677</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>629.570363233848</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4722,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1783.289727221112</v>
+        <v>1905.334082925056</v>
       </c>
       <c r="T7" t="n">
-        <v>1783.289727221112</v>
+        <v>1683.567467494582</v>
       </c>
       <c r="U7" t="n">
-        <v>1783.289727221112</v>
+        <v>1394.464600620226</v>
       </c>
       <c r="V7" t="n">
-        <v>1528.605239015225</v>
+        <v>1139.780112414339</v>
       </c>
       <c r="W7" t="n">
-        <v>1239.188068978264</v>
+        <v>850.3629423773781</v>
       </c>
       <c r="X7" t="n">
-        <v>1011.198518080247</v>
+        <v>850.3629423773781</v>
       </c>
       <c r="Y7" t="n">
-        <v>790.405938936717</v>
+        <v>629.570363233848</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>510.7590362090546</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>510.7590362090546</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1753.601577054515</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1464.498710180159</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1209.814221974272</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>920.3970519373116</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>692.4075010392943</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>692.4075010392943</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171264</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892196</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892196</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>564.5188827892196</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>417.6289352913092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>250.4328360061891</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487564</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831761</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625874</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588914</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690896</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473662</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,31 +5275,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6265,13 +6265,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,19 +7426,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>22.81817176293566</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51053793615432</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817515.6470952156</v>
+        <v>817515.6470952157</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817515.6470952157</v>
+        <v>817515.6470952156</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675041</v>
@@ -26331,28 +26331,28 @@
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314473</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-911251.4259139182</v>
       </c>
       <c r="C6" t="n">
-        <v>417493.3198136742</v>
+        <v>417493.3198136741</v>
       </c>
       <c r="D6" t="n">
-        <v>417493.3198136743</v>
+        <v>417493.3198136744</v>
       </c>
       <c r="E6" t="n">
-        <v>167310.5466300918</v>
+        <v>167623.1879590132</v>
       </c>
       <c r="F6" t="n">
-        <v>492723.0084374466</v>
+        <v>493035.649766368</v>
       </c>
       <c r="G6" t="n">
-        <v>492723.0084374466</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="H6" t="n">
-        <v>492723.0084374467</v>
+        <v>493035.649766368</v>
       </c>
       <c r="I6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="J6" t="n">
-        <v>275191.8060401691</v>
+        <v>275504.4473690903</v>
       </c>
       <c r="K6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="L6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663679</v>
       </c>
       <c r="M6" t="n">
-        <v>407667.9805019347</v>
+        <v>407980.6218308562</v>
       </c>
       <c r="N6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663677</v>
       </c>
       <c r="O6" t="n">
-        <v>492723.0084374466</v>
+        <v>493035.6497663676</v>
       </c>
       <c r="P6" t="n">
-        <v>492723.0084374465</v>
+        <v>493035.6497663677</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>150.2973423161884</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.2458784183972</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>201.7849285259233</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>136.1364053427823</v>
+        <v>168.0281648196395</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194499</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>47.59290795253122</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.003997547551988e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33204,10 +33204,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
